--- a/medicine/Enfance/Betty_Bone/Betty_Bone.xlsx
+++ b/medicine/Enfance/Betty_Bone/Betty_Bone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betty Bone, née le 1er septembre 1977[1], est une autrice de littérature jeunesse, illustratrice et réalisatrice française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betty Bone, née le 1er septembre 1977, est une autrice de littérature jeunesse, illustratrice et réalisatrice française.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée en 2002 de l'École supérieure des arts décoratifs de Strasbourg, Betty Bone a publié dans diverses maisons d'édition, comme les Éditions du Rouergue, les Éditions Thierry Magnier, les Éditions courtes et longues, ou encore le Père Castor. Elle réalise aussi des courts métrages d'animation, et collabore régulièrement avec la presse (Télérama, XXI…) Elle vit et travaille à Paris.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En tant qu'autrice-illustratrice
-2004 : Un singe bien attrapé, Flammarion-Père Castor
+          <t>En tant qu'autrice-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2004 : Un singe bien attrapé, Flammarion-Père Castor
 2005 : Dudu, Éditions Thierry Magnier
 2005 : Balade, Éditions du Sorbier
 2005 : La nuit, Éditions du Rouergue
@@ -557,9 +576,43 @@
 2013 : Devinez quoi !, Éditions courtes et longues &amp; Musée des Confluences
 2016 : ExtraVaGant, Éditions Courtes et longues
 2017 : Jardinez ! Un livre à lire avec le nez, Éditions de la Réunion des musées nationaux - Grand palais
-2019 : Ronds ronds, Éditions courtes et longues
-En tant qu'illustratrice
-2003 : Comment ses amis délivrèrent la gazelle, texte de Bertrand Solet, Flammarion - Père Castor
+2019 : Ronds ronds, Éditions courtes et longues</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Betty_Bone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betty_Bone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2003 : Comment ses amis délivrèrent la gazelle, texte de Bertrand Solet, Flammarion - Père Castor
 2005 : Le Corbusier, l'œil et le mot, avec Antoine Vigne, Mango
 2008 : Presque pareils, avec Virginie Aladjidi et C. Pelissier, Éditions Thierry Magnier
 2011 : Bec-en-l'Air, avec Martine Laffon, Éditions Thierry Magnier
@@ -568,38 +621,74 @@
 2017 : Ta race ! : moi et les autres, avec Marie Desplechin ; avec la collaboration d'Évelyne Heyer et Carole Reynaud-Paligot, Éditions courtes et longues
 2017 : La vie bien dérangée de Monsieur Watanabe, avec Delphine Roux, Éditions Picquier
 2018 : Néandertal et moi, avec Jérôme Coignard et Antoine Balzeau, Éditions courtes et longues
-2023 : Monsieur Denis, avec Camille Hermand, éditions Courtes et Longues
-Collectif
-2005 : Je dessine comme un grand : Les Formes, Flammarion-Père Castor
+2023 : Monsieur Denis, avec Camille Hermand, éditions Courtes et Longues</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Betty_Bone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betty_Bone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2005 : Je dessine comme un grand : Les Formes, Flammarion-Père Castor
 2006 : Je dessine comme un grand : La Nature, Flammarion-Père Castor</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Betty_Bone</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Betty_Bone</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dudu, 2006
 La nuit, 2006
